--- a/data/RC_data.xlsx
+++ b/data/RC_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1007">
   <si>
     <t xml:space="preserve">Sobregeneralización </t>
   </si>
@@ -1205,288 +1205,567 @@
     <t>Todo me supera siempre</t>
   </si>
   <si>
+    <t>Hay días en que me afectan más las cosas</t>
+  </si>
+  <si>
     <t>Jamás voy a mejorar</t>
   </si>
   <si>
+    <t>Aunque ahora no lo crea, voy a poder mejorar</t>
+  </si>
+  <si>
     <t>Nunca voy a poder cambiar</t>
   </si>
   <si>
+    <t>Si me esfuerzo, tengo opciones de cambiar</t>
+  </si>
+  <si>
     <t>Todo el mundo me ignora</t>
   </si>
   <si>
+    <t>Aunque haya gente que me ignore, no quiere decir que todo el mundo lo haga</t>
+  </si>
+  <si>
+    <t>Me cuesta sentirme comprendida, eso no implica que nadie me entienda</t>
+  </si>
+  <si>
     <t>Mis amigos siempre me tratan mal</t>
   </si>
   <si>
+    <t>Puede ser que algún día mis amigos no se hayan portado bien, aunque eso no pasa siempre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nunca llegaré a ser bueno en nada </t>
   </si>
   <si>
+    <t>Fallar en algunas cosas no implica generalizarlo a todos los ámbitos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nada se me da suficientemente bien </t>
   </si>
   <si>
+    <t>No tengo que hacerlo todo bien</t>
+  </si>
+  <si>
     <t>Nunca conseguiré un buen trabajo</t>
   </si>
   <si>
+    <t>Si lo intento, tengo opciones de conseguir un buen trabajo</t>
+  </si>
+  <si>
     <t>Siempre estaré así de mal</t>
   </si>
   <si>
+    <t>En la vida nada es estable, el cambio forma parte del proceso</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soy un fracasado, siempre lo seré </t>
   </si>
   <si>
+    <t>Fracasar en ciertas ocasiones no te convierte en un fracasado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Me tienen que querer siempre </t>
   </si>
   <si>
+    <t>Habrá gente que me va a querer y otra que no</t>
+  </si>
+  <si>
     <t>Aunque lo intente siempre fracasaré</t>
   </si>
   <si>
+    <t>Haber fracasado anteriormente no implica tener que hacerlo en un futuro</t>
+  </si>
+  <si>
     <t>Nunca seré feliz</t>
   </si>
   <si>
+    <t>Aunque ahora este triste, puedo mejorar y llegar a ser feliz</t>
+  </si>
+  <si>
     <t>Siempre tendré esta ansiedad</t>
   </si>
   <si>
+    <t>La ansiedad no es algo estable, puede dejar de estar</t>
+  </si>
+  <si>
     <t>Nunca dejaré de estar triste</t>
   </si>
   <si>
+    <t>La tristeza no es estable, puede dejar de estar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siempre le tengo que caer bien a los demás </t>
   </si>
   <si>
+    <t>No tengo que caerle bien a todo el mundo</t>
+  </si>
+  <si>
     <t>El mundo siempre es peligroso</t>
   </si>
   <si>
+    <t>Pueden haber peligros y eso no convierte el mundo en peligroso</t>
+  </si>
+  <si>
     <t>Nadie me valora</t>
   </si>
   <si>
+    <t>Aunque sienta que hay gente que no me valora, seguro que hay alguien que si</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nunca aprobaré el examen </t>
   </si>
   <si>
+    <t>Si estudio suficiente seguramente aprobaré el examen</t>
+  </si>
+  <si>
     <t>Nunca seré capaz de sacarme una carrera</t>
   </si>
   <si>
+    <t>Si estudio suficiente, seguramente sea capaz de sacarme una carrera</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nunca tendré un buen día </t>
   </si>
   <si>
+    <t>Haber tenido un mal día no convierte en todos los días malos</t>
+  </si>
+  <si>
     <t>No podré confiar en nadie nunca</t>
   </si>
   <si>
+    <t>Puedo encontrar a alguien en quien poder confiar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siempre hay que desconfiar de los demás </t>
   </si>
   <si>
+    <t>Aunque haya tenido malas experiencias, no hay que desconfiar de todo el mundo</t>
+  </si>
+  <si>
     <t>Nunca conseguiré lo que me propongo</t>
   </si>
   <si>
+    <t>Si me esfuerzo puedo conseguir muchas cosas</t>
+  </si>
+  <si>
     <t>Aunque lo intento siempre fracaso</t>
   </si>
   <si>
+    <t>Fracasar a veces no implica fracasar siempre</t>
+  </si>
+  <si>
     <t xml:space="preserve">La gente siempre pasa de mí </t>
   </si>
   <si>
+    <t>Puede haber gente que no me haga caso a veces, no siempre</t>
+  </si>
+  <si>
     <t>Nadie me entiende</t>
   </si>
   <si>
+    <t>Me puedo sentir incomprendido a veces</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jamás tendré éxito en la vida </t>
   </si>
   <si>
+    <t>Aunque ahora no lo vea, puedo tener éxito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Me harán daño siempre </t>
   </si>
   <si>
+    <t>Que me hayan hecho daño no implica que siempre sea así</t>
+  </si>
+  <si>
     <t>Nunca puedes confiar en nadie</t>
   </si>
   <si>
+    <t>Hay gente en la que puedo confiar</t>
+  </si>
+  <si>
     <t>Todo el mundo es egoista</t>
   </si>
   <si>
+    <t>Hay gente egoísta, no todo el mundo lo es</t>
+  </si>
+  <si>
     <t>Nunca seré un buen marido</t>
   </si>
   <si>
+    <t>Haber cometido errores no me convierte en un mal marido</t>
+  </si>
+  <si>
     <t>Nunca seré una buena madre</t>
   </si>
   <si>
+    <t>Haber cometido errores no me convierte en una mala madre</t>
+  </si>
+  <si>
     <t xml:space="preserve">No lo he conseguido, siempre fallaré </t>
   </si>
   <si>
-    <t>La ansiedad nunca se ira</t>
+    <t>Fallar a veces no implica tener que fallar siempre</t>
+  </si>
+  <si>
+    <t>La ansiedad nunca se irá</t>
   </si>
   <si>
     <t>No he dormido en toda la noche, nunca podré dormir bien</t>
   </si>
   <si>
+    <t>Hay noches en las que duermo mal, pero puedo mejorar</t>
+  </si>
+  <si>
     <t>Nunca puedo mostrar debilidad</t>
   </si>
   <si>
+    <t>Mostrar debilidades no es algo negativo</t>
+  </si>
+  <si>
     <t>Siempre tengo que hacer las cosas bien</t>
   </si>
   <si>
+    <t>No hay que hacer las cosas bien siempre, fallar es humano</t>
+  </si>
+  <si>
     <t>Nunca podré aceptarme como soy</t>
   </si>
   <si>
+    <t>Aunque no me gusten ciertas cosas de mi, puedo acpetarme</t>
+  </si>
+  <si>
     <t>Nadie puede cambiar nunca</t>
   </si>
   <si>
+    <t>Casi siempre hay opciones de poder hacer cambios</t>
+  </si>
+  <si>
     <t>La gente nunca cambia</t>
   </si>
   <si>
+    <t>Muchas veces la gente puede cambiar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nunca puedes ser débil </t>
   </si>
   <si>
     <t>Tienes que ser fuerte siempre</t>
   </si>
   <si>
+    <t>No tenemos que ser fuertes en todas las ocasiones</t>
+  </si>
+  <si>
     <t xml:space="preserve">Si suspendo una vez, suspenderé siempre </t>
   </si>
   <si>
+    <t>Suspender una vez no implica que volveré a suspender</t>
+  </si>
+  <si>
     <t>Los demás siempre son mejores que yo</t>
   </si>
   <si>
+    <t>Siempre habrá gente mejor y peor en determinadas cosas</t>
+  </si>
+  <si>
     <t>Siempre me saldrán las cosas mal</t>
   </si>
   <si>
+    <t>Me puede salir algo mal, eso no implica que todo me salga mal</t>
+  </si>
+  <si>
     <t>Siempre tengo dolor</t>
   </si>
   <si>
+    <t>A veces el dolor mejora</t>
+  </si>
+  <si>
     <t>La vida siempre es un caos</t>
   </si>
   <si>
+    <t>Hay momentos de caos pero otros tranquilos</t>
+  </si>
+  <si>
     <t>Nunca disfruto de nada</t>
   </si>
   <si>
+    <t>Hay algunas cosas con las que puedo disfrutar</t>
+  </si>
+  <si>
     <t>Siempre soy incapaz de llevar a cabo lo que me propongo</t>
   </si>
   <si>
+    <t>Aunque a veces me cuesta, puedo llevar a cabo las cosas que me propongo</t>
+  </si>
+  <si>
     <t>Nunca me sale nada bien</t>
   </si>
   <si>
+    <t>A veces me salen algunas cosas mal</t>
+  </si>
+  <si>
     <t>Siempre hay que tener las cosas bajo control</t>
   </si>
   <si>
+    <t>No puedo tener todo bajo control siempre</t>
+  </si>
+  <si>
     <t>Nadie me saluda por la calle</t>
   </si>
   <si>
+    <t>Que alguien no me salude, no implica que nadie lo haga</t>
+  </si>
+  <si>
     <t>La gente siempre se olvida de mi</t>
   </si>
   <si>
+    <t>Se pueden olvidar de mi en ocasiones, no siempre</t>
+  </si>
+  <si>
     <t xml:space="preserve">A nadie le caigo bien </t>
   </si>
   <si>
+    <t>No le tengo que caer bien a todo el mundo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Siempre me tratan con injusticia </t>
   </si>
   <si>
+    <t>Puede haber algunas situaciones que considere injustas</t>
+  </si>
+  <si>
     <t>Siempre me siento mal</t>
   </si>
   <si>
+    <t>Me puedo sentir mal a veces, no siempre</t>
+  </si>
+  <si>
     <t>Nadie me escucha</t>
   </si>
   <si>
+    <t>Puedo tener la percepción de que nadie me escucha aunque no sea siempre así</t>
+  </si>
+  <si>
     <t>Mi jefe nunca me valora</t>
   </si>
   <si>
+    <t>A veces no me siento valorado por mi jefe</t>
+  </si>
+  <si>
     <t>Mis parejas siempre me van a ser infieles</t>
   </si>
   <si>
+    <t>Que me haya tenido parejas infieles, no implica que todas lo sean</t>
+  </si>
+  <si>
     <t>Mi familia siempre me trata mal</t>
   </si>
   <si>
+    <t>A veces me puedo sentir mal tratado por mi familia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Si he engordado un kilo, entonces engordaré cien </t>
   </si>
   <si>
+    <t>Engordar un kilo no implica tener que seguir engordando</t>
+  </si>
+  <si>
     <t>Siempre hay que hacer las cosas bien</t>
   </si>
   <si>
     <t>Siempre tienes que ser perfecto</t>
   </si>
   <si>
-    <t>Mis padres nunca me escuchas</t>
+    <t>La perfección no existe</t>
+  </si>
+  <si>
+    <t>Mis padres nunca me escuchan</t>
+  </si>
+  <si>
+    <t>A veces puedo sentir que mis padres no me escuchan</t>
   </si>
   <si>
     <t>Nadie me apoya en lo que quiero</t>
   </si>
   <si>
+    <t>A veces me puedo sentir poco comprendido aunque me apoyen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Si algo va mal, siempre irá mal </t>
   </si>
   <si>
+    <t>Que algo vaya mal a veces no implica que sea así siempre</t>
+  </si>
+  <si>
     <t>Jamás lo haré bien</t>
   </si>
   <si>
+    <t>Que ahora no vaya bien no quiere decir que no pueda ir bien</t>
+  </si>
+  <si>
     <t>Siempre cometeré el mismo error</t>
   </si>
   <si>
+    <t>Puedo haber cometido un error a veces y aprender de ello</t>
+  </si>
+  <si>
     <t>Todos los hombres son iguales</t>
   </si>
   <si>
+    <t>No hay ningún hombre igual a otro</t>
+  </si>
+  <si>
     <t>Todos los jefes son malos</t>
   </si>
   <si>
+    <t>No hay ningún jefe igual a otro</t>
+  </si>
+  <si>
     <t>La gente siempre me mira mal</t>
   </si>
   <si>
+    <t>A veces puedo sentir que me miran mal, no es así siempre</t>
+  </si>
+  <si>
     <t xml:space="preserve">La gente siempre es egoísta </t>
   </si>
   <si>
+    <t>Que haya gente egoista no quiere decir que todo el mundo lo sea</t>
+  </si>
+  <si>
     <t>Todos los perros atacan</t>
   </si>
   <si>
+    <t>Que haya perros que ataquen no quiere decir que todos lo hagan</t>
+  </si>
+  <si>
     <t>Nuna podré conseguir mi sueño</t>
   </si>
   <si>
+    <t>Si me esfuerzo tengo opciones de conseguir mi sueño</t>
+  </si>
+  <si>
     <t>Siempre voy a estar solo</t>
   </si>
   <si>
+    <t>Que esté solo ahora no quiere decir que vaya a estarlo siempre</t>
+  </si>
+  <si>
     <t>Nuna tendré amigos</t>
   </si>
   <si>
+    <t>Que ahora no tenga amigos no implica que nunca los vaya a tener</t>
+  </si>
+  <si>
     <t>A nadie le parezco simpatico</t>
   </si>
   <si>
+    <t>Puede haber gente que le parezca más simpático que a otros</t>
+  </si>
+  <si>
     <t>Siempre tendré insomnio</t>
   </si>
   <si>
+    <t>El insomnio puede mejorar</t>
+  </si>
+  <si>
     <t>Siempre duermo mal</t>
   </si>
   <si>
+    <t>Hay días en los que duermo peor</t>
+  </si>
+  <si>
     <t>Nunca duermo nada</t>
   </si>
   <si>
+    <t>Hay días en los que duermo menos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mis padres siempre me juzgan </t>
   </si>
   <si>
+    <t>A veces me puedo sentir juzgado por mis padres</t>
+  </si>
+  <si>
     <t>Nunca sabré cocinar</t>
   </si>
   <si>
+    <t>Que ahora no sepa cocinar, no quiere decir que no pueda aprender</t>
+  </si>
+  <si>
     <t>Siempre se me darán mal los deportes</t>
   </si>
   <si>
+    <t>Que no se me den bien ahora los deportes, no quiere decir que no pueda aprender</t>
+  </si>
+  <si>
     <t>Siempre me van a criticar</t>
   </si>
   <si>
+    <t>A veces me pueden criticar</t>
+  </si>
+  <si>
     <t>Nadie quiere salir conmigo</t>
   </si>
   <si>
+    <t>Que haya gente que no quiera salir conmigo, no quiere decir que nunca vaya a haber nadie</t>
+  </si>
+  <si>
     <t xml:space="preserve">La vida nunca tendrá sentido </t>
   </si>
   <si>
+    <t>Que ahora no le encuentre sentido, no implica que no le vaya a encontrar</t>
+  </si>
+  <si>
     <t>A nadie le importan mis problemas</t>
   </si>
   <si>
+    <t>Aunque no me lo parezca hay gente a la que le importan mis problemas</t>
+  </si>
+  <si>
     <t>Mis amigos nunca me entienden</t>
   </si>
   <si>
+    <t>Aunque me sienta incomprendido a veces, no implica que mis amigos no me entiendan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nunca lo lograré </t>
   </si>
   <si>
+    <t>Si no lo intento no sabré si puedo lograrlo</t>
+  </si>
+  <si>
     <t>Siempre me pasa lo mismo</t>
   </si>
   <si>
+    <t>Que me haya pasado alguna vez, no tiene porque ser así siempre</t>
+  </si>
+  <si>
     <t>Siempre voy a ser un desastre</t>
   </si>
   <si>
+    <t>Fallar a veces no me convierte en un desastre</t>
+  </si>
+  <si>
     <t>Siempre hago el ridículo</t>
   </si>
   <si>
+    <t>Aunque crea que hago el ridículo, no tiene porque ser así</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nunca tendré amigos </t>
   </si>
   <si>
+    <t>Aunque ahora no tenga amigos, puedo tenerlos en un futuro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Todo el mundo piensa que soy un inútil </t>
   </si>
   <si>
+    <t>Que yo me sienta un inútil, no puedo saber lo que piensan los demás</t>
+  </si>
+  <si>
     <t>Siempre tendré éste problema</t>
   </si>
   <si>
@@ -1670,6 +1949,78 @@
   </si>
   <si>
     <t>Debería haberse dado cuenta de que estoy mail y no seguir preguntándome (</t>
+  </si>
+  <si>
+    <t>Debería ser perfecto en todo lo que hago</t>
+  </si>
+  <si>
+    <t>Tengo que caerle bien a todos los que me rodean</t>
+  </si>
+  <si>
+    <t>Debo terminar todas las tareas que empiezo</t>
+  </si>
+  <si>
+    <t>Tengo que tener éxito en mi trabajo</t>
+  </si>
+  <si>
+    <t>Mis padres deben cuidar de mí</t>
+  </si>
+  <si>
+    <t>Tengo que estar siempre guapo por si me encuentro a alguien</t>
+  </si>
+  <si>
+    <t>Los demás tienen que pensar que soy simpático</t>
+  </si>
+  <si>
+    <t>Debería ganar más dinero</t>
+  </si>
+  <si>
+    <t>Deberia estar estudiando en vez de estar con mis amigos</t>
+  </si>
+  <si>
+    <t>Tengo que ser el mejor en mi trabajo</t>
+  </si>
+  <si>
+    <t>Mi pareja debe saber cuando no estoy bien</t>
+  </si>
+  <si>
+    <t>Mis padres tienen que darme dinero</t>
+  </si>
+  <si>
+    <t>Los demás deberían hacer lo que les digo</t>
+  </si>
+  <si>
+    <t>No debo cometer errores, son signos de debilidad</t>
+  </si>
+  <si>
+    <t>Mis amigos tienen que saber cuando estoy enfadado</t>
+  </si>
+  <si>
+    <t>No debería estar constantemente preocupado por todo</t>
+  </si>
+  <si>
+    <t>No debo mostrarme vulnerable ante los demás</t>
+  </si>
+  <si>
+    <t>No debo mostrar mis sentimientos ante los demás, serán usados en mi contra</t>
+  </si>
+  <si>
+    <t>Tengo que comer menos calorías, estoy engordando</t>
+  </si>
+  <si>
+    <t>Tengo que tener un estilo de vida saludable</t>
+  </si>
+  <si>
+    <t>Debo tener muchos amigos</t>
+  </si>
+  <si>
+    <t>Mis amigos no deben quedar sin mí</t>
+  </si>
+  <si>
+    <t>Mi pareja debe apoyarme en todo lo que hago</t>
+  </si>
+  <si>
+    <t>Debería perder menos el tiempo en tonterias</t>
   </si>
   <si>
     <t>deberían hacerme caso</t>
@@ -1998,6 +2349,45 @@
     <t>Sé que ya no me quiere, lo noto en su mirada.</t>
   </si>
   <si>
+    <t>En el fondo mi novio piensa que no sé hacer nada bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mis amigos piensan que soy un ser despreciable </t>
+  </si>
+  <si>
+    <t>Por como me mira, sé que no me soporta</t>
+  </si>
+  <si>
+    <t>Aunque no lo digan, sé que mis compañeros de clase no quieren saber nada de mí</t>
+  </si>
+  <si>
+    <t>Todos mis profesores tienen mal concepto de mí.</t>
+  </si>
+  <si>
+    <t>Por como me habla mi primo, sé que no le caigo bien.</t>
+  </si>
+  <si>
+    <t>En el fondo mis padres piensan que nunca conseguiré lo que me propongo</t>
+  </si>
+  <si>
+    <t>Estoy seguro de que mi profesor de música no confía en mi talento.</t>
+  </si>
+  <si>
+    <t>Seguro que no me llama porque se ha cansado de mí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se que ya no le importo, le noto distante. </t>
+  </si>
+  <si>
+    <t>No me acercaré a hablar con ella, sé que no quiere conocerme</t>
+  </si>
+  <si>
+    <t>No me atrevo a escribirle, sé que no le intereso</t>
+  </si>
+  <si>
+    <t>No hablo en grupo porque pensarán que lo que digo es una estupidez.</t>
+  </si>
+  <si>
     <t>Se que piensan mal de mi</t>
   </si>
   <si>
@@ -2070,27 +2460,51 @@
     <t>mi tio es insoportable</t>
   </si>
   <si>
+    <t>es completamente estúpido pensar....</t>
+  </si>
+  <si>
     <t>que siento que no soy inteligente</t>
   </si>
   <si>
+    <t>en el deporte soy un poco torpe</t>
+  </si>
+  <si>
     <t>la verdad es que no paro de pensar en que soy idiota</t>
   </si>
   <si>
+    <t>mi amiga a veces se pone pesada</t>
+  </si>
+  <si>
     <t>no soy perfecto</t>
   </si>
   <si>
+    <t>soy pésimo en el ajedrez</t>
+  </si>
+  <si>
     <t>soy lo peor</t>
   </si>
   <si>
+    <t>mis compañeros son malos en fútbol</t>
+  </si>
+  <si>
     <t>mi amiga es idiota</t>
   </si>
   <si>
+    <t>mi tio se pone insoportable cuando habla de política</t>
+  </si>
+  <si>
     <t>soy completamente idiota</t>
   </si>
   <si>
+    <t>este vestido es horrible</t>
+  </si>
+  <si>
     <t>soy asqueroso</t>
   </si>
   <si>
+    <t>la música del bar es inaguantable</t>
+  </si>
+  <si>
     <t>es que soy imbecil no tengo remedio</t>
   </si>
   <si>
@@ -2250,10 +2664,10 @@
     <t>soy aburrida</t>
   </si>
   <si>
-    <t>mi amiga es muy pesada</t>
-  </si>
-  <si>
-    <t>ella es una persona alegre</t>
+    <t>mi amiga es pesada</t>
+  </si>
+  <si>
+    <t>ella es alegre</t>
   </si>
   <si>
     <t>no soy divertido</t>
@@ -2379,7 +2793,7 @@
     <t>mis amigos sí que son animados</t>
   </si>
   <si>
-    <t>soy una mierda</t>
+    <t>soy un desastre</t>
   </si>
   <si>
     <t>mis amigos son unos mentirosos</t>
@@ -2388,7 +2802,7 @@
     <t>soy perezoso</t>
   </si>
   <si>
-    <t>no tengo solución, no soy valiente</t>
+    <t>no tengo solución, soy un cobarde</t>
   </si>
   <si>
     <t>no soy atrevido</t>
@@ -2427,12 +2841,33 @@
     <t>soy pésimo en todo lo que hago</t>
   </si>
   <si>
-    <t>mis amigos son inmejorables</t>
+    <t>Mi madre es pesada</t>
   </si>
   <si>
     <t>mi hijo es terrible</t>
   </si>
   <si>
+    <t>soy una decepción para los demás</t>
+  </si>
+  <si>
+    <t>mi hermano es un vividor</t>
+  </si>
+  <si>
+    <t>mis compañeros son unos aprovechados</t>
+  </si>
+  <si>
+    <t>soy horrorosa, no le puedo gustar a nadie</t>
+  </si>
+  <si>
+    <t>mi amiga es deprimente</t>
+  </si>
+  <si>
+    <t>soy despreciable</t>
+  </si>
+  <si>
+    <t>mi novia es buena</t>
+  </si>
+  <si>
     <t>No valgo para nada</t>
   </si>
   <si>
@@ -2754,6 +3189,96 @@
     <t>Realizarme cómo mujer es mucho más que ser esposa y madre</t>
   </si>
   <si>
+    <t>Si no hago mucho ejercicio no podré estar delgada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ejercicio es saludable en su justa medida, hacer demasiado también puede ser perjudicial </t>
+  </si>
+  <si>
+    <t>O tengo muchos amigos o no soy nadie</t>
+  </si>
+  <si>
+    <t>Mis amistades no me definen como persona</t>
+  </si>
+  <si>
+    <t>Si me tomo tiempo libre me convertiré en una vaga</t>
+  </si>
+  <si>
+    <t>El descanso también forma parte de ser una persona activa</t>
+  </si>
+  <si>
+    <t>O me aprendo todo lo que va para el exámen o seguro reprobaré</t>
+  </si>
+  <si>
+    <t>Puedo salir bien en un exámen aunque haya algunas cosas que no me sepa</t>
+  </si>
+  <si>
+    <t>Si no limpio siempre todo a fondo no seré una buena ama de casa</t>
+  </si>
+  <si>
+    <t>Para mantener mi casa limpia puedo limpiarla a vece a fondo y otras veces no tanto</t>
+  </si>
+  <si>
+    <t>Si como mucho no podré adelgazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A veces puedo comer mucho e igual mantenerme en mi peso </t>
+  </si>
+  <si>
+    <t>O lo hago todo perfecto me echarán del trabajo</t>
+  </si>
+  <si>
+    <t>Puedo hacer bien mi trabajo aunque a veces las cosas no estén perfectas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no digo siempre que si a los demás no me aceptarán </t>
+  </si>
+  <si>
+    <t>Decir que no a los demás es poner límites, no implica que me vayan a rechazar</t>
+  </si>
+  <si>
+    <t>Si no voy a todos los planes de mis amigos me echarán del grupo</t>
+  </si>
+  <si>
+    <t>A veces puedo no tener ganas de salir con mis amigos y ellos pueden entenderlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no tengo muchos "me gusta" en mis redes sociales no le gusto a nadie </t>
+  </si>
+  <si>
+    <t>Las redes sociales no reflejan la realidad de lo que los demás piensan sobre mi</t>
+  </si>
+  <si>
+    <t>Si me muestro tal como soy no voy a gustarle a los demás</t>
+  </si>
+  <si>
+    <t>Las personas a las que les gusto me aprecian con mis virtudes y mis defectos</t>
+  </si>
+  <si>
+    <t>O cuento calorías o seré obesa</t>
+  </si>
+  <si>
+    <t>Las calorías que consumo no es lo único que influye en mi peso</t>
+  </si>
+  <si>
+    <t>O visto a la moda o pensarán que soy rara y me rechazarán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La forma de vestir es un gusto personal y a algunos le puede gustar y a otro no </t>
+  </si>
+  <si>
+    <t>O voy siempre arreglada o pensarán mal de mi</t>
+  </si>
+  <si>
+    <t>Me arreglo para mi y sentirme a gusto conmigo</t>
+  </si>
+  <si>
+    <t>Si estoy triste no querrán estar conmigo</t>
+  </si>
+  <si>
+    <t>Si me siento triste habrá personas que querrán darme apoyo</t>
+  </si>
+  <si>
     <t>Si no consigo sacar un 10 en el examen no habrá servido para nada el esfuerzo</t>
   </si>
   <si>
@@ -2922,12 +3447,18 @@
     <t xml:space="preserve">sería terrible </t>
   </si>
   <si>
+    <t xml:space="preserve">las consecuencias del indendio han sido terribles </t>
+  </si>
+  <si>
     <t>insoportable</t>
   </si>
   <si>
     <t>Las consecuencias serían insoportables… fracasaría y sería horrible.</t>
   </si>
   <si>
+    <t>Me sabe fatal que no llegaras a tiempo</t>
+  </si>
+  <si>
     <t>insufrible</t>
   </si>
   <si>
@@ -3174,7 +3705,13 @@
     <t>me están destrozando la vida,</t>
   </si>
   <si>
-    <t xml:space="preserve">la cita será un calvario, </t>
+    <t>Pero sigo teniendo muchas cosas buenas</t>
+  </si>
+  <si>
+    <t>Me están haciendo las cosas difíciles</t>
+  </si>
+  <si>
+    <t>la cita será un calvario, lo peor</t>
   </si>
   <si>
     <t>Esta situación está siendo difícil, pero sé que mejorará.</t>
@@ -3186,18 +3723,234 @@
     <t>será horroso</t>
   </si>
   <si>
+    <t>Probablemente también habrá cosas positivas</t>
+  </si>
+  <si>
+    <t>Puede que pase un mal trago (momento)</t>
+  </si>
+  <si>
     <t>esto es insufrible</t>
   </si>
   <si>
+    <t>No me gusta, pero tengo márgen de maniobra, puedo hacer cosas</t>
+  </si>
+  <si>
+    <t>No lo estoy pasando (demasiado) bien</t>
+  </si>
+  <si>
     <t>eso no lo podré soportar, seguro, será demasiado</t>
   </si>
   <si>
+    <t>He pasado cosas mucho peores</t>
+  </si>
+  <si>
+    <t>Puede que tenga malos momentes</t>
+  </si>
+  <si>
     <t>No puedo aguantar más esta situación</t>
   </si>
   <si>
+    <t>He de tolerar ciertas cosas que no me gustan y centrarme en las que me gustan</t>
+  </si>
+  <si>
+    <t>Me está resultando difícil tolerar esta situación</t>
+  </si>
+  <si>
+    <t>Las lluvias seguro que serán dantescas, destrozarán toda la cosecha</t>
+  </si>
+  <si>
+    <t>Puede que las lluvias afecten a la cosecha, tendré que estar atento</t>
+  </si>
+  <si>
+    <t>Las lluvias pueden afectar seriamente (negativamente) a la cosecha y hacer que sea un año duro</t>
+  </si>
+  <si>
+    <t>Has visto cómo me ha mirado el jefe?. Seguro que piensa que soy estúpido, eso significa que ya no me dará más trabajos</t>
+  </si>
+  <si>
+    <t>Creo que el jefe me ha mirado con cara de enfado, igual tiene un mal día</t>
+  </si>
+  <si>
+    <t>El jefe me ha mirado con cara de estar (muy) enfadado</t>
+  </si>
+  <si>
+    <t>Después de esto que ha pasado nada será igual nunca más</t>
+  </si>
+  <si>
+    <t>Después de esto que ha pasado será difícil y llevará un tiempo que retome mi vida normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Después de esto que ha pasado, probablemente, la vida será más difícil que hasta ahora. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He pillado a mi hijo fumando un porro. Es horroroso, acabará siendo un despojo humano. </t>
+  </si>
+  <si>
+    <t>Tengo que hablar con él de los problemas que pueden derivarse si hace ciertas cosas</t>
+  </si>
+  <si>
+    <t>Es algo importante, depende como, a largo plazo puede tener consecuencias (muy) negativas</t>
+  </si>
+  <si>
+    <t>Esto es insoportable</t>
+  </si>
+  <si>
+    <t>A veces soy un poco exagerada/o</t>
+  </si>
+  <si>
+    <t>Esto me resulta molesto</t>
+  </si>
+  <si>
+    <t>Será lo peor del mundo, ni me lo quiero imaginar</t>
+  </si>
+  <si>
+    <t>Bueno, todavía no sé lo que va a pasar</t>
+  </si>
+  <si>
+    <t>Las cosas se pueden poner difíciles</t>
+  </si>
+  <si>
+    <t>No hay nada peor que lo que me ha pasado</t>
+  </si>
+  <si>
+    <t>No ha sido para tanto, aún estoy aquí y puedo hacer cosas para cambiar eso</t>
+  </si>
+  <si>
+    <t>Aquello que me pasó fue duro</t>
+  </si>
+  <si>
+    <t>No iré al cumpleaños porque haré el ridículo y será un desastre, lo peor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No soy el rey de las fiestas e incluso a veces paso malos momentos, pero conozco gente nueva y merece la pena </t>
+  </si>
+  <si>
+    <t>En el cumpleaños puede que pase momentos malos</t>
+  </si>
+  <si>
+    <t>nunca más confiarán en mí, es horroroso</t>
+  </si>
+  <si>
     <t>Me espera lo peor, un auténtico infierno</t>
   </si>
   <si>
+    <t>Soy el peor trabajador de la empresa, todo lo hago fatal</t>
+  </si>
+  <si>
+    <t>No puedo más con esta situación, es dramático</t>
+  </si>
+  <si>
+    <t>Me saldrá increíblemente mal</t>
+  </si>
+  <si>
+    <t>Todo el mundo puede tener malos días</t>
+  </si>
+  <si>
+    <t>He hecho un mal partido, puede que haya consecuencias</t>
+  </si>
+  <si>
+    <t>He sido el peor del partido, me echarán del equipo</t>
+  </si>
+  <si>
+    <t>Me abandonará mi mujer, será auténticamente doloroso</t>
+  </si>
+  <si>
+    <t>Si me deja mi mujer, lo pasaré mal, pero con ayuda de la familia, amigos y profesionales si hiciese falta, lo superaré</t>
+  </si>
+  <si>
+    <t>Que te deje tu mujer (seguro que ) es duro</t>
+  </si>
+  <si>
+    <t>No aguanto más, me sucede todo lo peor</t>
+  </si>
+  <si>
+    <t>no podré ser nunca más la misma, ya no podré ser feliz, qué horror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tendré que hacer un esfuerzo para volver a mi antigua normalidad. </t>
+  </si>
+  <si>
+    <t>Habrá cosas que serán diferentes, incluso malas respecto a hace tiempo</t>
+  </si>
+  <si>
+    <t>Me están destrozando la vida, inadmisible</t>
+  </si>
+  <si>
+    <t>Puedo centrarme en lo que depende de mí</t>
+  </si>
+  <si>
+    <t>Hay gente que me lo está haciendo pasar mal</t>
+  </si>
+  <si>
+    <t>Será terrible</t>
+  </si>
+  <si>
+    <t>Pasará seguro y será insoportable</t>
+  </si>
+  <si>
+    <t>Me saldrá algo malo seguro, una enfermedad grave, no podré tolerarlo</t>
+  </si>
+  <si>
+    <t>Que me diagnostiquen eso sería duro, pero hay buenos tratamientos y siempre se puede hacer algo</t>
+  </si>
+  <si>
+    <t>Sería una noticia muy dura y me provocaría mucho miedo que me diagnostiquen esa enfermedad</t>
+  </si>
+  <si>
+    <t>No entregué el trabajo a tiempo.  Esto es terrible, seguro que me despiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si me dicen algo les explicaré el porqué y trataré de que no vuelva a pasar. </t>
+  </si>
+  <si>
+    <t>Pueden llamarte la atención si no entregas informes en el plazo establecido</t>
+  </si>
+  <si>
+    <t>Esto es lo peor del mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me pasó algo inaguantable, lo peor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No lo podré tolerar, imposible, </t>
+  </si>
+  <si>
+    <t>aquello fue lo peor del mundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eso no lo probaré, seguro que me sale fatal y me quedo hundido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunque me pueda salir mal, lo habré intentado y me servirá para (cosas similares) en el futuro. </t>
+  </si>
+  <si>
+    <t>Hay algunas cosas que saldrán mal y nos provocarán malestar (dolor)</t>
+  </si>
+  <si>
+    <t>En 5 meses he engordado mucho. Es inaceptable, me doy asco, esto no lo puedo soportar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En  5 meses he engordado 5 Kg a partir de ahora le dedicaré más tiempo a una alimentación buena (equilibrada) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En 5 meses he engordado muchon, 5 kg, es algo que me disgusta, y no me gusta tanto mi apariencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo que m hizo me destrozó la vida </t>
+  </si>
+  <si>
+    <t>me arruinaré seguro</t>
+  </si>
+  <si>
+    <t>doy asco, soy lo peor</t>
+  </si>
+  <si>
+    <t>me quedaré solo seguro, no lo podré aguantar</t>
+  </si>
+  <si>
+    <t>eso sería lo peor del muno</t>
+  </si>
+  <si>
     <t>Mi futuro es desolador</t>
   </si>
   <si>
@@ -3205,13 +3958,19 @@
   </si>
   <si>
     <t>¿Y si les pasa algo malo a las personas que quiero?</t>
+  </si>
+  <si>
+    <t>Le llamo y no me contesta seguro que le ha pasado algo grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sera insufrible la consequencia de no haber ido </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3239,9 +3998,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3294,7 +4050,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3336,11 +4092,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3349,13 +4105,7 @@
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4058,480 +4808,768 @@
       <c r="B61" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="C61" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="62">
       <c r="B62" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="C65" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="66">
       <c r="B66" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="8" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="8" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="8" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="8" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="8" t="s">
-        <v>112</v>
+        <v>126</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="8" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="8" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="8" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="8" t="s">
-        <v>116</v>
+        <v>134</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="8" t="s">
-        <v>117</v>
+        <v>136</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="8" t="s">
-        <v>118</v>
+        <v>138</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="8" t="s">
-        <v>119</v>
+        <v>140</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="8" t="s">
-        <v>120</v>
+        <v>142</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="8" t="s">
-        <v>121</v>
+        <v>144</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="8" t="s">
-        <v>122</v>
+        <v>146</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="8" t="s">
-        <v>123</v>
+        <v>148</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="8" t="s">
-        <v>124</v>
+        <v>150</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="8" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="8" t="s">
-        <v>126</v>
+        <v>154</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="8" t="s">
-        <v>127</v>
+        <v>156</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="8" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="8" t="s">
-        <v>129</v>
+        <v>160</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="8" t="s">
-        <v>130</v>
+        <v>162</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="8" t="s">
-        <v>131</v>
+        <v>164</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="8" t="s">
-        <v>132</v>
+        <v>166</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="8" t="s">
-        <v>133</v>
+        <v>168</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="8" t="s">
-        <v>134</v>
+        <v>169</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="8" t="s">
-        <v>135</v>
+        <v>171</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="8" t="s">
-        <v>136</v>
+        <v>173</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="8" t="s">
-        <v>137</v>
+        <v>175</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="8" t="s">
-        <v>138</v>
+        <v>177</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="8" t="s">
-        <v>139</v>
+        <v>179</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="8" t="s">
-        <v>140</v>
+        <v>181</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="8" t="s">
-        <v>141</v>
+        <v>182</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="8" t="s">
-        <v>142</v>
+        <v>184</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="8" t="s">
-        <v>143</v>
+        <v>186</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="8" t="s">
-        <v>144</v>
+        <v>188</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="8" t="s">
-        <v>145</v>
+        <v>190</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="8" t="s">
-        <v>146</v>
+        <v>192</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="8" t="s">
-        <v>147</v>
+        <v>194</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="8" t="s">
-        <v>148</v>
+        <v>196</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="8" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="8" t="s">
-        <v>150</v>
+        <v>200</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="8" t="s">
-        <v>151</v>
+        <v>202</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="8" t="s">
-        <v>152</v>
+        <v>204</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="8" t="s">
-        <v>153</v>
+        <v>206</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="8" t="s">
-        <v>154</v>
+        <v>208</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="8" t="s">
-        <v>155</v>
+        <v>210</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="8" t="s">
-        <v>156</v>
+        <v>212</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="8" t="s">
-        <v>157</v>
+        <v>214</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="8" t="s">
-        <v>158</v>
+        <v>216</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="8" t="s">
-        <v>159</v>
+        <v>218</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="8" t="s">
-        <v>160</v>
+        <v>220</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="8" t="s">
-        <v>161</v>
+        <v>222</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="8" t="s">
-        <v>162</v>
+        <v>223</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="8" t="s">
-        <v>163</v>
+        <v>225</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="8" t="s">
-        <v>164</v>
+        <v>227</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="8" t="s">
-        <v>165</v>
+        <v>229</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="8" t="s">
-        <v>166</v>
+        <v>231</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="8" t="s">
-        <v>167</v>
+        <v>233</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="8" t="s">
-        <v>168</v>
+        <v>235</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="8" t="s">
-        <v>169</v>
+        <v>237</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="8" t="s">
-        <v>170</v>
+        <v>239</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" s="8" t="s">
-        <v>171</v>
+        <v>241</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="8" t="s">
-        <v>172</v>
+        <v>243</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" s="8" t="s">
-        <v>173</v>
+        <v>245</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" s="8" t="s">
-        <v>174</v>
+        <v>247</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" s="8" t="s">
-        <v>175</v>
+        <v>249</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" s="8" t="s">
-        <v>176</v>
+        <v>251</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" s="8" t="s">
-        <v>177</v>
+        <v>253</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" s="8" t="s">
-        <v>178</v>
+        <v>255</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" s="8" t="s">
-        <v>179</v>
+        <v>257</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" s="8" t="s">
-        <v>180</v>
+        <v>259</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" s="8" t="s">
-        <v>181</v>
+        <v>261</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" s="8" t="s">
-        <v>182</v>
+        <v>263</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="8" t="s">
-        <v>183</v>
+        <v>265</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" s="8" t="s">
-        <v>184</v>
+        <v>267</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="8" t="s">
-        <v>185</v>
+        <v>269</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" s="8" t="s">
-        <v>186</v>
+        <v>271</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" s="8" t="s">
-        <v>187</v>
+        <v>273</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="8" t="s">
-        <v>188</v>
+        <v>275</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="8" t="s">
-        <v>189</v>
+        <v>277</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" s="8" t="s">
-        <v>190</v>
+        <v>279</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" s="8" t="s">
-        <v>191</v>
+        <v>281</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" s="8" t="s">
-        <v>192</v>
+        <v>283</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="8" t="s">
-        <v>193</v>
+        <v>285</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="160">
@@ -4563,52 +5601,52 @@
     </row>
     <row r="161">
       <c r="B161" s="4" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="4" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="4" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="10" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" s="4" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="4" t="s">
-        <v>199</v>
+        <v>292</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="4" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="4" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" s="4" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="4" t="s">
-        <v>203</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -4649,7 +5687,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4660,7 +5698,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4682,526 +5720,574 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="11" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7">
       <c r="B7" s="11" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8">
       <c r="B8" s="13" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9">
       <c r="B9" s="11" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10">
       <c r="B10" s="11" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="14" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12">
       <c r="B12" s="11" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="11" t="s">
-        <v>218</v>
+        <v>311</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="11" t="s">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="11" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="11" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="11" t="s">
-        <v>221</v>
+        <v>314</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="11" t="s">
-        <v>222</v>
+        <v>315</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="11" t="s">
-        <v>223</v>
+        <v>316</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="11" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="11" t="s">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22">
       <c r="B22" s="11" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="11" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="11" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="11" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="11" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>231</v>
+        <v>324</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="7" t="s">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>234</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>235</v>
+        <v>328</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>236</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="7" t="s">
-        <v>237</v>
+        <v>330</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="7" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>240</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="7" t="s">
-        <v>241</v>
+        <v>334</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="7" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="7" t="s">
-        <v>244</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="7" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="7" t="s">
-        <v>246</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="15"/>
+      <c r="B37" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38" s="15"/>
+      <c r="B38" s="8" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39" s="15"/>
+      <c r="B39" s="8" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40" s="15"/>
+      <c r="B40" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41" s="15"/>
+      <c r="B41" s="8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42" s="15"/>
+      <c r="B42" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43" s="15"/>
+      <c r="B43" s="8" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="15"/>
+      <c r="B44" s="8" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="15"/>
+      <c r="B45" s="8" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="15"/>
+      <c r="B46" s="15" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="15"/>
+      <c r="B47" s="8" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="15"/>
+      <c r="B48" s="8" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49" s="15"/>
+      <c r="B49" s="8" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="15"/>
+      <c r="B50" s="8" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="15"/>
+      <c r="B52" s="15" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="53">
-      <c r="B53" s="15"/>
+      <c r="B53" s="15" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="15"/>
+      <c r="B54" s="15" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="15"/>
+      <c r="B56" s="15" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="15"/>
+      <c r="B57" s="15" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" s="15"/>
+      <c r="B58" s="15" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="15"/>
+      <c r="B59" s="15" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="15"/>
+      <c r="B60" s="15" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="15"/>
+      <c r="B61" s="16"/>
     </row>
     <row r="62">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63">
-      <c r="B63" s="15"/>
+      <c r="B63" s="16"/>
     </row>
     <row r="64">
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65">
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
     </row>
     <row r="66">
-      <c r="B66" s="15"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67">
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
     </row>
     <row r="68">
-      <c r="B68" s="15"/>
+      <c r="B68" s="16"/>
     </row>
     <row r="69">
-      <c r="B69" s="15"/>
+      <c r="B69" s="16"/>
     </row>
     <row r="70">
-      <c r="B70" s="15"/>
+      <c r="B70" s="16"/>
     </row>
     <row r="71">
-      <c r="B71" s="15"/>
+      <c r="B71" s="16"/>
     </row>
     <row r="72">
-      <c r="B72" s="15"/>
+      <c r="B72" s="16"/>
     </row>
     <row r="73">
-      <c r="B73" s="15"/>
+      <c r="B73" s="16"/>
     </row>
     <row r="74">
-      <c r="B74" s="15"/>
+      <c r="B74" s="16"/>
     </row>
     <row r="75">
-      <c r="B75" s="15"/>
+      <c r="B75" s="16"/>
     </row>
     <row r="76">
-      <c r="B76" s="15"/>
+      <c r="B76" s="16"/>
     </row>
     <row r="77">
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
     </row>
     <row r="78">
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
     </row>
     <row r="79">
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80">
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
     </row>
     <row r="81">
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
     </row>
     <row r="82">
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
     </row>
     <row r="83">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
     </row>
     <row r="84">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
     </row>
     <row r="85">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
     </row>
     <row r="86">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
     </row>
     <row r="87">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
     </row>
     <row r="88">
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
     </row>
     <row r="89">
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
     </row>
     <row r="90">
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
     </row>
     <row r="91">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
     </row>
     <row r="92">
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
     </row>
     <row r="93">
-      <c r="B93" s="15"/>
+      <c r="B93" s="16"/>
     </row>
     <row r="94">
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
     </row>
     <row r="95">
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
     </row>
     <row r="96">
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
     </row>
     <row r="97">
-      <c r="B97" s="15"/>
+      <c r="B97" s="16"/>
     </row>
     <row r="98">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
     </row>
     <row r="104">
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
     </row>
     <row r="106">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
     </row>
     <row r="107">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
     </row>
     <row r="108">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
     </row>
     <row r="110">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
     </row>
     <row r="111">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
     </row>
     <row r="112">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
     </row>
     <row r="113">
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
     </row>
     <row r="114">
-      <c r="B114" s="15"/>
+      <c r="B114" s="16"/>
     </row>
     <row r="115">
-      <c r="B115" s="15"/>
+      <c r="B115" s="16"/>
     </row>
     <row r="116">
-      <c r="B116" s="15"/>
+      <c r="B116" s="16"/>
     </row>
     <row r="117">
-      <c r="B117" s="15"/>
+      <c r="B117" s="16"/>
     </row>
     <row r="118">
-      <c r="B118" s="15"/>
+      <c r="B118" s="16"/>
     </row>
     <row r="119">
-      <c r="B119" s="15"/>
+      <c r="B119" s="16"/>
     </row>
     <row r="120">
-      <c r="B120" s="15"/>
+      <c r="B120" s="16"/>
     </row>
     <row r="121">
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
     </row>
     <row r="122">
-      <c r="B122" s="15"/>
+      <c r="B122" s="16"/>
     </row>
     <row r="123">
-      <c r="B123" s="15"/>
+      <c r="B123" s="16"/>
     </row>
     <row r="124">
-      <c r="B124" s="15"/>
+      <c r="B124" s="16"/>
     </row>
     <row r="125">
-      <c r="B125" s="15"/>
+      <c r="B125" s="16"/>
     </row>
     <row r="126">
-      <c r="B126" s="15"/>
+      <c r="B126" s="16"/>
     </row>
     <row r="127">
-      <c r="B127" s="15"/>
+      <c r="B127" s="16"/>
     </row>
     <row r="128">
-      <c r="B128" s="15"/>
+      <c r="B128" s="16"/>
     </row>
     <row r="129">
-      <c r="B129" s="15"/>
+      <c r="B129" s="16"/>
     </row>
     <row r="130">
-      <c r="B130" s="15"/>
+      <c r="B130" s="16"/>
     </row>
     <row r="131">
-      <c r="B131" s="15"/>
+      <c r="B131" s="16"/>
     </row>
     <row r="132">
-      <c r="B132" s="15"/>
+      <c r="B132" s="16"/>
     </row>
     <row r="133">
-      <c r="B133" s="15"/>
+      <c r="B133" s="16"/>
     </row>
     <row r="134">
-      <c r="B134" s="15"/>
+      <c r="B134" s="16"/>
     </row>
     <row r="135">
-      <c r="B135" s="15"/>
+      <c r="B135" s="16"/>
     </row>
     <row r="136">
-      <c r="B136" s="15"/>
+      <c r="B136" s="16"/>
     </row>
     <row r="137">
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="9"/>
@@ -5232,67 +6318,67 @@
     </row>
     <row r="161">
       <c r="B161" s="4" t="s">
-        <v>247</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="4" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="4" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="4" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" s="4" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="4" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="4" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="4" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" s="4" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="4" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="4" t="s">
-        <v>257</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" s="4" t="s">
-        <v>258</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" s="4" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +6419,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5344,7 +6430,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>378</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -5366,633 +6452,659 @@
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>263</v>
+        <v>380</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>264</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>265</v>
+        <v>382</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>266</v>
+        <v>383</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>267</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>268</v>
+      <c r="A6" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>270</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>271</v>
+      <c r="A7" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="14" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9">
       <c r="B9" s="14" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10">
       <c r="B10" s="14" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="14" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12">
       <c r="B12" s="14" t="s">
-        <v>278</v>
+        <v>395</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="14" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="14" t="s">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="14" t="s">
-        <v>281</v>
+        <v>398</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="14" t="s">
-        <v>282</v>
+        <v>399</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="14" t="s">
-        <v>283</v>
+        <v>400</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="14" t="s">
-        <v>284</v>
+        <v>401</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="14" t="s">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="14" t="s">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="14" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22">
       <c r="B22" s="14" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="14" t="s">
-        <v>278</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="14" t="s">
-        <v>287</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="14" t="s">
-        <v>288</v>
+        <v>405</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>289</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="14" t="s">
-        <v>290</v>
+        <v>407</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>291</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="14" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="14" t="s">
-        <v>294</v>
+        <v>411</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>295</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="12" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="12" t="s">
-        <v>297</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="12" t="s">
-        <v>298</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="7" t="s">
-        <v>299</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="7" t="s">
-        <v>300</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="7" t="s">
-        <v>301</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="7" t="s">
-        <v>302</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="7" t="s">
-        <v>303</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="7" t="s">
-        <v>304</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="7" t="s">
-        <v>305</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="4" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="17" t="s">
-        <v>284</v>
+      <c r="B40" s="8" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="8" t="s">
-        <v>307</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="8" t="s">
-        <v>308</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="8" t="s">
-        <v>309</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="8" t="s">
-        <v>310</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="8" t="s">
-        <v>311</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="8" t="s">
-        <v>312</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="8" t="s">
-        <v>313</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="8" t="s">
-        <v>314</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="8" t="s">
-        <v>315</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="8" t="s">
-        <v>316</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="8" t="s">
-        <v>317</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="8" t="s">
-        <v>318</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="8" t="s">
-        <v>319</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="8" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="8" t="s">
-        <v>321</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="8" t="s">
-        <v>322</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="8" t="s">
-        <v>323</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="8" t="s">
-        <v>324</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="8" t="s">
-        <v>325</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="8" t="s">
-        <v>326</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="8" t="s">
-        <v>327</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="8" t="s">
-        <v>328</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="8" t="s">
-        <v>329</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="8" t="s">
-        <v>330</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="8" t="s">
-        <v>331</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="17" t="s">
-        <v>332</v>
+      <c r="B66" s="8" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="17" t="s">
-        <v>333</v>
+      <c r="B67" s="8" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="17" t="s">
-        <v>334</v>
+      <c r="B68" s="8" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="17" t="s">
-        <v>335</v>
+      <c r="B69" s="8" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="17" t="s">
-        <v>336</v>
+      <c r="B70" s="8" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="17" t="s">
-        <v>337</v>
+      <c r="B71" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="17" t="s">
-        <v>338</v>
+      <c r="B72" s="8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="17" t="s">
-        <v>339</v>
+      <c r="B73" s="8" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="17" t="s">
-        <v>340</v>
+      <c r="B74" s="8" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="17" t="s">
-        <v>341</v>
+      <c r="B75" s="8" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="17" t="s">
-        <v>342</v>
+      <c r="B76" s="8" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="17" t="s">
-        <v>343</v>
+      <c r="B77" s="8" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="17" t="s">
-        <v>344</v>
+      <c r="B78" s="8" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="17" t="s">
-        <v>345</v>
+      <c r="B79" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="17" t="s">
-        <v>346</v>
+      <c r="B80" s="8" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="17" t="s">
-        <v>347</v>
+      <c r="B81" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="17" t="s">
-        <v>348</v>
+      <c r="B82" s="8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="17" t="s">
-        <v>349</v>
+      <c r="B83" s="8" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="17" t="s">
-        <v>350</v>
+      <c r="B84" s="8" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="15"/>
+      <c r="B85" s="15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="86">
-      <c r="B86" s="15"/>
+      <c r="B86" s="15" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="87">
-      <c r="B87" s="15"/>
+      <c r="B87" s="15" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="88">
-      <c r="B88" s="15"/>
+      <c r="B88" s="15" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="89">
-      <c r="B89" s="15"/>
+      <c r="B89" s="15" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="90">
-      <c r="B90" s="15"/>
+      <c r="B90" s="15" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="91">
-      <c r="B91" s="15"/>
+      <c r="B91" s="15" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="92">
-      <c r="B92" s="15"/>
+      <c r="B92" s="15" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="93">
-      <c r="B93" s="15"/>
+      <c r="B93" s="15" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="94">
-      <c r="B94" s="15"/>
+      <c r="B94" s="15" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="95">
-      <c r="B95" s="15"/>
+      <c r="B95" s="15" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="96">
-      <c r="B96" s="15"/>
+      <c r="B96" s="15" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="97">
-      <c r="B97" s="15"/>
+      <c r="B97" s="15" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="98">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
     </row>
     <row r="104">
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
     </row>
     <row r="106">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
     </row>
     <row r="107">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
     </row>
     <row r="108">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
     </row>
     <row r="110">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
     </row>
     <row r="111">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
     </row>
     <row r="112">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
     </row>
     <row r="113">
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
     </row>
     <row r="114">
-      <c r="B114" s="15"/>
+      <c r="B114" s="16"/>
     </row>
     <row r="115">
-      <c r="B115" s="15"/>
+      <c r="B115" s="16"/>
     </row>
     <row r="116">
-      <c r="B116" s="15"/>
+      <c r="B116" s="16"/>
     </row>
     <row r="117">
-      <c r="B117" s="15"/>
+      <c r="B117" s="16"/>
     </row>
     <row r="118">
-      <c r="B118" s="15"/>
+      <c r="B118" s="16"/>
     </row>
     <row r="119">
-      <c r="B119" s="15"/>
+      <c r="B119" s="16"/>
     </row>
     <row r="120">
-      <c r="B120" s="15"/>
+      <c r="B120" s="16"/>
     </row>
     <row r="121">
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
     </row>
     <row r="122">
-      <c r="B122" s="15"/>
+      <c r="B122" s="16"/>
     </row>
     <row r="123">
-      <c r="B123" s="15"/>
+      <c r="B123" s="16"/>
     </row>
     <row r="124">
-      <c r="B124" s="15"/>
+      <c r="B124" s="16"/>
     </row>
     <row r="125">
-      <c r="B125" s="15"/>
+      <c r="B125" s="16"/>
     </row>
     <row r="126">
-      <c r="B126" s="15"/>
+      <c r="B126" s="16"/>
     </row>
     <row r="127">
-      <c r="B127" s="15"/>
+      <c r="B127" s="16"/>
     </row>
     <row r="128">
-      <c r="B128" s="15"/>
+      <c r="B128" s="16"/>
     </row>
     <row r="129">
-      <c r="B129" s="15"/>
+      <c r="B129" s="16"/>
     </row>
     <row r="130">
-      <c r="B130" s="15"/>
+      <c r="B130" s="16"/>
     </row>
     <row r="131">
-      <c r="B131" s="15"/>
+      <c r="B131" s="16"/>
     </row>
     <row r="132">
-      <c r="B132" s="15"/>
+      <c r="B132" s="16"/>
     </row>
     <row r="133">
-      <c r="B133" s="15"/>
+      <c r="B133" s="16"/>
     </row>
     <row r="134">
-      <c r="B134" s="15"/>
+      <c r="B134" s="16"/>
     </row>
     <row r="135">
-      <c r="B135" s="15"/>
+      <c r="B135" s="16"/>
     </row>
     <row r="136">
-      <c r="B136" s="15"/>
+      <c r="B136" s="16"/>
     </row>
     <row r="137">
-      <c r="B137" s="15"/>
+      <c r="B137" s="16"/>
     </row>
     <row r="138">
-      <c r="B138" s="15"/>
+      <c r="B138" s="16"/>
     </row>
     <row r="139">
-      <c r="B139" s="15"/>
+      <c r="B139" s="16"/>
     </row>
     <row r="140">
-      <c r="B140" s="15"/>
+      <c r="B140" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="9"/>
@@ -6023,42 +7135,42 @@
     </row>
     <row r="161">
       <c r="B161" s="4" t="s">
-        <v>351</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="4" t="s">
-        <v>352</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="4" t="s">
-        <v>353</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="4" t="s">
-        <v>354</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" s="4" t="s">
-        <v>355</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="4" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" s="4" t="s">
-        <v>357</v>
+        <v>487</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" s="4" t="s">
-        <v>358</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6099,7 +7211,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6110,7 +7222,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6132,700 +7244,735 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>361</v>
+        <v>491</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>362</v>
+        <v>492</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>363</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>364</v>
+        <v>494</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>365</v>
+        <v>495</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>366</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>367</v>
+        <v>497</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>368</v>
+        <v>498</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>369</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="11" t="s">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>371</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="14" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>373</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="11" t="s">
-        <v>374</v>
+        <v>504</v>
       </c>
       <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="11" t="s">
-        <v>375</v>
+        <v>506</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="11" t="s">
-        <v>376</v>
+        <v>508</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="11" t="s">
-        <v>377</v>
+        <v>510</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="17" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="11" t="s">
-        <v>378</v>
+        <v>512</v>
       </c>
       <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="11" t="s">
-        <v>379</v>
+        <v>514</v>
       </c>
       <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="11" t="s">
-        <v>380</v>
+        <v>516</v>
       </c>
       <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="11" t="s">
-        <v>381</v>
+        <v>518</v>
       </c>
       <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="11" t="s">
-        <v>382</v>
+        <v>520</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="11" t="s">
-        <v>383</v>
+        <v>521</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="11" t="s">
-        <v>384</v>
+        <v>522</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="11" t="s">
-        <v>385</v>
+        <v>523</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="11" t="s">
-        <v>386</v>
+        <v>524</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22">
       <c r="B22" s="7" t="s">
-        <v>387</v>
+        <v>525</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="6" t="s">
-        <v>388</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="7" t="s">
-        <v>389</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="7" t="s">
-        <v>390</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="7" t="s">
-        <v>391</v>
+        <v>529</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>392</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="7" t="s">
-        <v>393</v>
+        <v>531</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>394</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="4" t="s">
-        <v>395</v>
+        <v>533</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>396</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="14" t="s">
-        <v>397</v>
+        <v>535</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30">
       <c r="B30" s="18" t="s">
-        <v>398</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="4" t="s">
-        <v>399</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="4" t="s">
-        <v>400</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="s">
-        <v>401</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="8" t="s">
-        <v>402</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="8" t="s">
-        <v>403</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="8" t="s">
-        <v>404</v>
+        <v>542</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="8" t="s">
-        <v>405</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="8" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="8" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="8" t="s">
-        <v>408</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="8" t="s">
-        <v>409</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="8" t="s">
-        <v>410</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="8" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="8" t="s">
-        <v>412</v>
+        <v>550</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="8" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="8" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="8" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="8" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="8" t="s">
-        <v>417</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="8" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="8" t="s">
-        <v>419</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="8" t="s">
-        <v>420</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="8" t="s">
-        <v>421</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="8" t="s">
-        <v>422</v>
+        <v>560</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="8" t="s">
-        <v>423</v>
+        <v>561</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="8" t="s">
-        <v>424</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" s="8" t="s">
-        <v>425</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="8" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="8" t="s">
-        <v>427</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="8" t="s">
-        <v>428</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" s="8" t="s">
-        <v>429</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="8" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="8" t="s">
-        <v>431</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="8" t="s">
-        <v>432</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="8" t="s">
-        <v>433</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="8" t="s">
-        <v>434</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="8" t="s">
-        <v>435</v>
+      <c r="B67" s="15" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="8" t="s">
-        <v>436</v>
+      <c r="B68" s="15" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="8" t="s">
-        <v>437</v>
+        <v>575</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" s="8" t="s">
-        <v>438</v>
+        <v>576</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" s="8" t="s">
-        <v>439</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" s="8" t="s">
-        <v>440</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" s="8" t="s">
-        <v>441</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" s="8" t="s">
-        <v>442</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="8" t="s">
-        <v>443</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" s="8" t="s">
-        <v>444</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" s="8" t="s">
-        <v>445</v>
+        <v>583</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" s="8" t="s">
-        <v>446</v>
+        <v>584</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="8" t="s">
-        <v>447</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" s="8" t="s">
-        <v>448</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81">
       <c r="B81" s="8" t="s">
-        <v>449</v>
+        <v>587</v>
       </c>
     </row>
     <row r="82">
       <c r="B82" s="8" t="s">
-        <v>450</v>
+        <v>588</v>
       </c>
     </row>
     <row r="83">
       <c r="B83" s="8" t="s">
-        <v>451</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84">
       <c r="B84" s="8" t="s">
-        <v>452</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85">
       <c r="B85" s="8" t="s">
-        <v>453</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86">
       <c r="B86" s="8" t="s">
-        <v>454</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87">
       <c r="B87" s="8" t="s">
-        <v>455</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88">
       <c r="B88" s="8" t="s">
-        <v>456</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="8" t="s">
-        <v>457</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="8" t="s">
-        <v>458</v>
+        <v>596</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="8" t="s">
-        <v>459</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" s="8" t="s">
-        <v>460</v>
+        <v>598</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" s="8" t="s">
-        <v>461</v>
+        <v>599</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" s="8" t="s">
-        <v>462</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" s="8" t="s">
-        <v>463</v>
+        <v>601</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" s="8" t="s">
-        <v>464</v>
+        <v>602</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" s="8" t="s">
-        <v>465</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" s="8" t="s">
-        <v>466</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" s="8" t="s">
-        <v>467</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" s="8" t="s">
-        <v>468</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" s="8" t="s">
-        <v>469</v>
+        <v>607</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" s="8" t="s">
-        <v>470</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" s="8" t="s">
-        <v>471</v>
+        <v>609</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="8" t="s">
-        <v>472</v>
+        <v>610</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" s="8" t="s">
-        <v>473</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" s="8" t="s">
-        <v>474</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" s="8" t="s">
-        <v>475</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" s="8" t="s">
-        <v>476</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" s="8" t="s">
-        <v>477</v>
+        <v>615</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" s="8" t="s">
-        <v>478</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" s="8" t="s">
-        <v>479</v>
+        <v>617</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" s="8" t="s">
-        <v>480</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" s="8" t="s">
-        <v>481</v>
+        <v>619</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" s="8" t="s">
-        <v>482</v>
+        <v>620</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" s="8" t="s">
-        <v>483</v>
+        <v>621</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="8" t="s">
-        <v>484</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" s="8" t="s">
-        <v>485</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" s="8" t="s">
-        <v>486</v>
+        <v>624</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="8" t="s">
-        <v>487</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="8" t="s">
-        <v>488</v>
+        <v>626</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" s="8" t="s">
-        <v>489</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="8" t="s">
-        <v>490</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="8" t="s">
-        <v>491</v>
+        <v>629</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" s="8" t="s">
-        <v>492</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="8" t="s">
-        <v>493</v>
+        <v>631</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="8" t="s">
-        <v>494</v>
+        <v>632</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="8" t="s">
-        <v>495</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128">
-      <c r="B128" s="15"/>
+      <c r="B128" s="8" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="129">
-      <c r="B129" s="15"/>
+      <c r="B129" s="8" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="130">
-      <c r="B130" s="15"/>
+      <c r="B130" s="8" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="131">
-      <c r="B131" s="15"/>
+      <c r="B131" s="8" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="132">
-      <c r="B132" s="15"/>
+      <c r="B132" s="8" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="133">
-      <c r="B133" s="15"/>
+      <c r="B133" s="15" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="134">
-      <c r="B134" s="15"/>
+      <c r="B134" s="15" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="9"/>
@@ -6856,32 +8003,32 @@
     </row>
     <row r="161">
       <c r="B161" s="19" t="s">
-        <v>496</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="4" t="s">
-        <v>497</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="4" t="s">
-        <v>498</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" s="4" t="s">
-        <v>499</v>
+        <v>644</v>
       </c>
     </row>
     <row r="165">
-      <c r="B165" s="20" t="s">
-        <v>500</v>
+      <c r="B165" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="4" t="s">
-        <v>501</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -6922,7 +8069,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>502</v>
+        <v>647</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6933,7 +8080,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>503</v>
+        <v>648</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6955,659 +8102,734 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>504</v>
+        <v>649</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>505</v>
+        <v>650</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>506</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>507</v>
+        <v>652</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>508</v>
+        <v>653</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>509</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="13" t="s">
-        <v>510</v>
+        <v>655</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>511</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="13" t="s">
-        <v>512</v>
+        <v>657</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>513</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="12" t="s">
-        <v>514</v>
+        <v>659</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>515</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="14" t="s">
-        <v>516</v>
+        <v>661</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>517</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="14" t="s">
-        <v>518</v>
+        <v>663</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="14" t="s">
-        <v>519</v>
+        <v>664</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12">
       <c r="B12" s="14" t="s">
-        <v>520</v>
+        <v>665</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="12" t="s">
-        <v>521</v>
+        <v>666</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="12" t="s">
-        <v>522</v>
+        <v>667</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="12" t="s">
-        <v>523</v>
+        <v>668</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="14" t="s">
-        <v>524</v>
+        <v>669</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="14" t="s">
-        <v>519</v>
+        <v>664</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="14" t="s">
-        <v>523</v>
+        <v>668</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="14" t="s">
-        <v>525</v>
+        <v>670</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="14" t="s">
-        <v>526</v>
+        <v>671</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21">
       <c r="B21" s="14" t="s">
-        <v>520</v>
+        <v>665</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22">
       <c r="B22" s="14" t="s">
-        <v>527</v>
+        <v>672</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23">
       <c r="B23" s="14" t="s">
-        <v>528</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="14" t="s">
-        <v>514</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="14" t="s">
-        <v>529</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="14" t="s">
-        <v>516</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="14" t="s">
-        <v>530</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="14" t="s">
-        <v>531</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="14" t="s">
-        <v>532</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="14" t="s">
-        <v>533</v>
+        <v>678</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>534</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="8" t="s">
-        <v>535</v>
+        <v>680</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>536</v>
+        <v>681</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>537</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="8" t="s">
-        <v>538</v>
+        <v>683</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>539</v>
+        <v>684</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>540</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="21" t="s">
-        <v>541</v>
+      <c r="B33" s="20" t="s">
+        <v>686</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>542</v>
+        <v>687</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>543</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="21" t="s">
-        <v>544</v>
+      <c r="B34" s="20" t="s">
+        <v>689</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>545</v>
+        <v>690</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>546</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="21" t="s">
-        <v>547</v>
+      <c r="B35" s="20" t="s">
+        <v>692</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>548</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="21" t="s">
-        <v>549</v>
+      <c r="B36" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>550</v>
+        <v>695</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="8" t="s">
-        <v>551</v>
+        <v>696</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>552</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="8" t="s">
-        <v>553</v>
+        <v>698</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>554</v>
+        <v>699</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="8" t="s">
-        <v>555</v>
+        <v>700</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>556</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="8" t="s">
-        <v>557</v>
+        <v>702</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>558</v>
+        <v>703</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="8" t="s">
-        <v>559</v>
+        <v>704</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>560</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="8" t="s">
-        <v>561</v>
+        <v>706</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>562</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="8" t="s">
-        <v>563</v>
+        <v>708</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>564</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="8" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="8" t="s">
-        <v>567</v>
+        <v>712</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>568</v>
+        <v>713</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="8" t="s">
-        <v>569</v>
+        <v>714</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>570</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="8" t="s">
-        <v>571</v>
+        <v>716</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>572</v>
+        <v>717</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="8" t="s">
-        <v>573</v>
+        <v>718</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>574</v>
+        <v>719</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="8" t="s">
-        <v>575</v>
+        <v>720</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>576</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="8" t="s">
-        <v>577</v>
+        <v>722</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>578</v>
+        <v>723</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="8" t="s">
-        <v>579</v>
+        <v>724</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>580</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="8" t="s">
-        <v>581</v>
+        <v>726</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>582</v>
+        <v>727</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="8" t="s">
-        <v>583</v>
+        <v>728</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>584</v>
+        <v>729</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" s="8" t="s">
-        <v>585</v>
+        <v>730</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>586</v>
+        <v>731</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" s="8" t="s">
-        <v>587</v>
+        <v>732</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>588</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="8" t="s">
-        <v>589</v>
+        <v>734</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>590</v>
+        <v>735</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="17" t="s">
-        <v>591</v>
+      <c r="B57" s="8" t="s">
+        <v>736</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>592</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="17" t="s">
-        <v>593</v>
+      <c r="B58" s="8" t="s">
+        <v>738</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>594</v>
+        <v>739</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="17" t="s">
-        <v>595</v>
+      <c r="B59" s="8" t="s">
+        <v>740</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>596</v>
+        <v>741</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="17" t="s">
-        <v>597</v>
+      <c r="B60" s="8" t="s">
+        <v>742</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>598</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="17" t="s">
-        <v>599</v>
+      <c r="B61" s="8" t="s">
+        <v>744</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>600</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="17" t="s">
-        <v>601</v>
+      <c r="B62" s="8" t="s">
+        <v>746</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>602</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="15"/>
+      <c r="B63" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="15"/>
+      <c r="B64" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="15"/>
+      <c r="B65" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="15"/>
+      <c r="B66" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="15"/>
+      <c r="B67" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="68">
-      <c r="B68" s="15"/>
+      <c r="B68" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="15"/>
+      <c r="B69" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="15"/>
+      <c r="B70" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="15"/>
+      <c r="B71" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="15"/>
+      <c r="B72" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="15"/>
+      <c r="B73" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="15"/>
+      <c r="B74" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="15"/>
+      <c r="B75" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="76">
-      <c r="B76" s="15"/>
+      <c r="B76" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="77">
-      <c r="B77" s="15"/>
+      <c r="B77" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="78">
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
     </row>
     <row r="79">
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80">
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
     </row>
     <row r="81">
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
     </row>
     <row r="82">
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
     </row>
     <row r="83">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
     </row>
     <row r="84">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
     </row>
     <row r="85">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
     </row>
     <row r="86">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
     </row>
     <row r="87">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
     </row>
     <row r="88">
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
     </row>
     <row r="89">
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
     </row>
     <row r="90">
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
     </row>
     <row r="91">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
     </row>
     <row r="92">
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
     </row>
     <row r="93">
-      <c r="B93" s="15"/>
+      <c r="B93" s="16"/>
     </row>
     <row r="94">
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
     </row>
     <row r="95">
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
     </row>
     <row r="96">
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
     </row>
     <row r="97">
-      <c r="B97" s="15"/>
+      <c r="B97" s="16"/>
     </row>
     <row r="98">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
     </row>
     <row r="104">
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
     </row>
     <row r="106">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
     </row>
     <row r="107">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
     </row>
     <row r="108">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
     </row>
     <row r="110">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
     </row>
     <row r="111">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
     </row>
     <row r="112">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
     </row>
     <row r="113">
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
     </row>
     <row r="114">
-      <c r="B114" s="15"/>
+      <c r="B114" s="16"/>
     </row>
     <row r="115">
-      <c r="B115" s="15"/>
+      <c r="B115" s="16"/>
     </row>
     <row r="116">
-      <c r="B116" s="15"/>
+      <c r="B116" s="16"/>
     </row>
     <row r="117">
-      <c r="B117" s="15"/>
+      <c r="B117" s="16"/>
     </row>
     <row r="118">
-      <c r="B118" s="15"/>
+      <c r="B118" s="16"/>
     </row>
     <row r="119">
-      <c r="B119" s="15"/>
+      <c r="B119" s="16"/>
     </row>
     <row r="120">
-      <c r="B120" s="15"/>
+      <c r="B120" s="16"/>
     </row>
     <row r="121">
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
     </row>
     <row r="122">
-      <c r="B122" s="15"/>
+      <c r="B122" s="16"/>
     </row>
     <row r="123">
-      <c r="B123" s="15"/>
+      <c r="B123" s="16"/>
     </row>
     <row r="124">
-      <c r="B124" s="15"/>
+      <c r="B124" s="16"/>
     </row>
     <row r="125">
-      <c r="B125" s="15"/>
+      <c r="B125" s="16"/>
     </row>
     <row r="126">
-      <c r="B126" s="15"/>
+      <c r="B126" s="16"/>
     </row>
     <row r="127">
-      <c r="B127" s="15"/>
+      <c r="B127" s="16"/>
     </row>
     <row r="128">
-      <c r="B128" s="15"/>
+      <c r="B128" s="16"/>
     </row>
     <row r="129">
-      <c r="B129" s="15"/>
+      <c r="B129" s="16"/>
     </row>
     <row r="130">
-      <c r="B130" s="15"/>
+      <c r="B130" s="16"/>
     </row>
     <row r="131">
-      <c r="B131" s="15"/>
+      <c r="B131" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="9"/>
@@ -7638,12 +8860,12 @@
     </row>
     <row r="161">
       <c r="B161" s="4" t="s">
-        <v>603</v>
+        <v>778</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="4" t="s">
-        <v>604</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -7684,7 +8906,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>605</v>
+        <v>780</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7695,7 +8917,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>606</v>
+        <v>781</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -7717,470 +8939,470 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>607</v>
+        <v>782</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>608</v>
+        <v>783</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>609</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>610</v>
+        <v>785</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>611</v>
+        <v>786</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>612</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>613</v>
+        <v>788</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>614</v>
+        <v>789</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>615</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>616</v>
+      <c r="A7" s="4" t="s">
+        <v>791</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>617</v>
+        <v>792</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>618</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>619</v>
+        <v>794</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9">
       <c r="B9" s="14" t="s">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10">
       <c r="B10" s="14" t="s">
-        <v>611</v>
+        <v>786</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="14" t="s">
-        <v>608</v>
+        <v>783</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12">
       <c r="B12" s="14" t="s">
-        <v>617</v>
+        <v>792</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="7" t="s">
-        <v>620</v>
+        <v>795</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="7" t="s">
-        <v>621</v>
+        <v>796</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="7" t="s">
-        <v>622</v>
+        <v>797</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="7" t="s">
-        <v>623</v>
+        <v>798</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="7" t="s">
-        <v>624</v>
+        <v>799</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18">
-      <c r="B18" s="21" t="s">
-        <v>625</v>
+      <c r="B18" s="20" t="s">
+        <v>800</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19">
-      <c r="B19" s="21" t="s">
-        <v>626</v>
+      <c r="B19" s="20" t="s">
+        <v>801</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20">
-      <c r="B20" s="21" t="s">
-        <v>627</v>
+      <c r="B20" s="20" t="s">
+        <v>802</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21">
-      <c r="B21" s="21" t="s">
-        <v>628</v>
+      <c r="B21" s="20" t="s">
+        <v>803</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22">
-      <c r="B22" s="21" t="s">
-        <v>629</v>
+      <c r="B22" s="20" t="s">
+        <v>804</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23">
-      <c r="B23" s="21" t="s">
-        <v>630</v>
+      <c r="B23" s="20" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="21" t="s">
-        <v>631</v>
+      <c r="B24" s="20" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="21" t="s">
-        <v>632</v>
+      <c r="B25" s="20" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="21" t="s">
-        <v>633</v>
+      <c r="B26" s="20" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="21" t="s">
-        <v>634</v>
+      <c r="B27" s="20" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="21" t="s">
-        <v>635</v>
+      <c r="B28" s="20" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="21" t="s">
-        <v>636</v>
+      <c r="B29" s="20" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="21" t="s">
-        <v>637</v>
+      <c r="B30" s="20" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="8" t="s">
-        <v>638</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="8" t="s">
-        <v>639</v>
+        <v>814</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="21" t="s">
-        <v>640</v>
+      <c r="B33" s="20" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="21" t="s">
-        <v>641</v>
+      <c r="B34" s="20" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="21" t="s">
-        <v>642</v>
+      <c r="B35" s="20" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="21" t="s">
-        <v>643</v>
+      <c r="B36" s="20" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="8" t="s">
-        <v>644</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="8" t="s">
-        <v>645</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="8" t="s">
-        <v>646</v>
+        <v>821</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="8" t="s">
-        <v>647</v>
+        <v>822</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="8" t="s">
-        <v>648</v>
+        <v>823</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="43">
-      <c r="B43" s="15"/>
+      <c r="B43" s="16"/>
     </row>
     <row r="44">
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
     </row>
     <row r="45">
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
     </row>
     <row r="46">
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
     </row>
     <row r="47">
-      <c r="B47" s="15"/>
+      <c r="B47" s="16"/>
     </row>
     <row r="48">
-      <c r="B48" s="15"/>
+      <c r="B48" s="16"/>
     </row>
     <row r="49">
-      <c r="B49" s="15"/>
+      <c r="B49" s="16"/>
     </row>
     <row r="50">
-      <c r="B50" s="15"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51">
-      <c r="B51" s="15"/>
+      <c r="B51" s="16"/>
     </row>
     <row r="52">
-      <c r="B52" s="15"/>
+      <c r="B52" s="16"/>
     </row>
     <row r="53">
-      <c r="B53" s="15"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54">
-      <c r="B54" s="15"/>
+      <c r="B54" s="16"/>
     </row>
     <row r="55">
-      <c r="B55" s="15"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56">
-      <c r="B56" s="15"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57">
-      <c r="B57" s="15"/>
+      <c r="B57" s="16"/>
     </row>
     <row r="58">
-      <c r="B58" s="15"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59">
-      <c r="B59" s="15"/>
+      <c r="B59" s="16"/>
     </row>
     <row r="60">
-      <c r="B60" s="15"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61">
-      <c r="B61" s="15"/>
+      <c r="B61" s="16"/>
     </row>
     <row r="62">
-      <c r="B62" s="15"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63">
-      <c r="B63" s="15"/>
+      <c r="B63" s="16"/>
     </row>
     <row r="64">
-      <c r="B64" s="15"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65">
-      <c r="B65" s="15"/>
+      <c r="B65" s="16"/>
     </row>
     <row r="66">
-      <c r="B66" s="15"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67">
-      <c r="B67" s="15"/>
+      <c r="B67" s="16"/>
     </row>
     <row r="68">
-      <c r="B68" s="15"/>
+      <c r="B68" s="16"/>
     </row>
     <row r="69">
-      <c r="B69" s="15"/>
+      <c r="B69" s="16"/>
     </row>
     <row r="70">
-      <c r="B70" s="15"/>
+      <c r="B70" s="16"/>
     </row>
     <row r="71">
-      <c r="B71" s="15"/>
+      <c r="B71" s="16"/>
     </row>
     <row r="72">
-      <c r="B72" s="15"/>
+      <c r="B72" s="16"/>
     </row>
     <row r="73">
-      <c r="B73" s="15"/>
+      <c r="B73" s="16"/>
     </row>
     <row r="74">
-      <c r="B74" s="15"/>
+      <c r="B74" s="16"/>
     </row>
     <row r="75">
-      <c r="B75" s="15"/>
+      <c r="B75" s="16"/>
     </row>
     <row r="76">
-      <c r="B76" s="15"/>
+      <c r="B76" s="16"/>
     </row>
     <row r="77">
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
     </row>
     <row r="78">
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
     </row>
     <row r="79">
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80">
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
     </row>
     <row r="81">
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
     </row>
     <row r="82">
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
     </row>
     <row r="83">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
     </row>
     <row r="84">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
     </row>
     <row r="85">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
     </row>
     <row r="86">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
     </row>
     <row r="87">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
     </row>
     <row r="88">
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
     </row>
     <row r="89">
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
     </row>
     <row r="90">
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
     </row>
     <row r="91">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
     </row>
     <row r="92">
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
     </row>
     <row r="93">
-      <c r="B93" s="15"/>
+      <c r="B93" s="16"/>
     </row>
     <row r="94">
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
     </row>
     <row r="95">
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
     </row>
     <row r="96">
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
     </row>
     <row r="97">
-      <c r="B97" s="15"/>
+      <c r="B97" s="16"/>
     </row>
     <row r="98">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
     </row>
     <row r="104">
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
     </row>
     <row r="106">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
     </row>
     <row r="107">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
     </row>
     <row r="108">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
     </row>
     <row r="110">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
     </row>
     <row r="111">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
     </row>
     <row r="112">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
     </row>
     <row r="113">
-      <c r="B113" s="15"/>
+      <c r="B113" s="16"/>
     </row>
     <row r="114">
-      <c r="B114" s="15"/>
+      <c r="B114" s="16"/>
     </row>
     <row r="115">
-      <c r="B115" s="15"/>
+      <c r="B115" s="16"/>
     </row>
     <row r="116">
-      <c r="B116" s="15"/>
+      <c r="B116" s="16"/>
     </row>
     <row r="117">
-      <c r="B117" s="15"/>
+      <c r="B117" s="16"/>
     </row>
     <row r="118">
-      <c r="B118" s="15"/>
+      <c r="B118" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="9"/>
@@ -8247,7 +9469,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>649</v>
+        <v>824</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -8258,7 +9480,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>650</v>
+        <v>825</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -8280,601 +9502,797 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>651</v>
+        <v>826</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>652</v>
+        <v>827</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>653</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>654</v>
+        <v>829</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>655</v>
+        <v>830</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>656</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>657</v>
+        <v>832</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>658</v>
+        <v>833</v>
       </c>
       <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>659</v>
+        <v>835</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>660</v>
+        <v>836</v>
       </c>
       <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>661</v>
+        <v>838</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>662</v>
+        <v>839</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>663</v>
+        <v>840</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>664</v>
+        <v>841</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>665</v>
+        <v>842</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>666</v>
+        <v>843</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="7" t="s">
-        <v>652</v>
+        <v>827</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12">
-      <c r="B12" s="22" t="s">
-        <v>667</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>668</v>
+      <c r="B12" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>669</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>671</v>
+      <c r="B13" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>848</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>672</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>674</v>
+      <c r="B14" s="21" t="s">
+        <v>850</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>851</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>675</v>
+        <v>852</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>677</v>
+      <c r="B15" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>854</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>678</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>680</v>
+      <c r="B16" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>857</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>681</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>683</v>
+      <c r="B17" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>860</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>684</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>686</v>
+      <c r="B18" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>863</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>687</v>
+        <v>864</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>689</v>
+      <c r="B19" s="20" t="s">
+        <v>865</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>866</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>690</v>
+        <v>867</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="22" t="s">
-        <v>691</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>692</v>
+      <c r="B20" s="20" t="s">
+        <v>868</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>869</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>693</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>695</v>
+      <c r="B21" s="20" t="s">
+        <v>871</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>872</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>696</v>
+        <v>873</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>698</v>
+      <c r="B22" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>875</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>699</v>
+        <v>876</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="22" t="s">
-        <v>700</v>
+      <c r="B23" s="20" t="s">
+        <v>877</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>702</v>
+        <v>878</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="22" t="s">
-        <v>703</v>
+      <c r="B24" s="20" t="s">
+        <v>880</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>704</v>
+        <v>881</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>705</v>
+        <v>882</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="22" t="s">
-        <v>706</v>
+      <c r="B25" s="20" t="s">
+        <v>883</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>707</v>
+        <v>884</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>708</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="22" t="s">
-        <v>709</v>
+      <c r="B26" s="20" t="s">
+        <v>886</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>710</v>
+        <v>887</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>711</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="22" t="s">
-        <v>712</v>
+      <c r="B27" s="20" t="s">
+        <v>889</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>713</v>
+        <v>890</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>714</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="22" t="s">
-        <v>715</v>
+      <c r="B28" s="20" t="s">
+        <v>892</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>716</v>
+        <v>893</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>717</v>
+        <v>894</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="22" t="s">
-        <v>718</v>
+      <c r="B29" s="20" t="s">
+        <v>895</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>719</v>
+        <v>896</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>720</v>
+        <v>897</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="22" t="s">
-        <v>721</v>
+      <c r="B30" s="20" t="s">
+        <v>898</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>722</v>
+        <v>899</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>723</v>
+        <v>900</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="17" t="s">
-        <v>724</v>
+      <c r="B31" s="8" t="s">
+        <v>901</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>725</v>
+        <v>902</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>726</v>
+        <v>903</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="17" t="s">
-        <v>727</v>
+      <c r="B32" s="8" t="s">
+        <v>904</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>728</v>
+        <v>905</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>729</v>
+        <v>906</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="22" t="s">
-        <v>730</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>731</v>
+      <c r="B33" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>908</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>732</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="22" t="s">
-        <v>733</v>
+      <c r="B34" s="20" t="s">
+        <v>910</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>734</v>
+        <v>911</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>735</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="22" t="s">
-        <v>736</v>
+      <c r="B35" s="20" t="s">
+        <v>913</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>737</v>
+        <v>914</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>738</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="22" t="s">
-        <v>739</v>
+      <c r="B36" s="20" t="s">
+        <v>916</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>740</v>
+        <v>917</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>741</v>
+        <v>918</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="17" t="s">
-        <v>742</v>
+      <c r="B37" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="17" t="s">
-        <v>743</v>
+      <c r="B38" s="8" t="s">
+        <v>922</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>744</v>
+        <v>923</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>745</v>
+        <v>924</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="17" t="s">
-        <v>746</v>
+      <c r="B39" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="17" t="s">
-        <v>747</v>
+      <c r="B40" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="17" t="s">
-        <v>748</v>
+      <c r="B41" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="17" t="s">
-        <v>749</v>
+      <c r="B42" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="15"/>
+      <c r="B43" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44" s="15"/>
+      <c r="B44" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="15"/>
+      <c r="B45" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="15"/>
+      <c r="B46" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="15"/>
+      <c r="B47" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="15"/>
+      <c r="B48" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49" s="15"/>
+      <c r="B49" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="15"/>
+      <c r="B50" s="8" t="s">
+        <v>958</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="15"/>
+      <c r="B51" s="8" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="17" t="s">
-        <v>750</v>
+      <c r="B52" s="8" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="15"/>
+      <c r="B53" s="8" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="15"/>
+      <c r="B54" s="8" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="15"/>
+      <c r="B55" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="15"/>
+      <c r="B56" s="8" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="15"/>
+      <c r="B57" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" s="15"/>
+      <c r="B58" s="8" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="15"/>
+      <c r="B59" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="15"/>
+      <c r="B60" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="15"/>
+      <c r="B61" s="8" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="15"/>
+      <c r="B62" s="15" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="15"/>
+      <c r="B63" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="15"/>
+      <c r="B64" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="15"/>
+      <c r="B65" s="8" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="15"/>
+      <c r="B66" s="8" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="15"/>
+      <c r="B67" s="15" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="68">
-      <c r="B68" s="15"/>
+      <c r="B68" s="15" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="15"/>
+      <c r="B69" s="15" t="s">
+        <v>991</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="70">
-      <c r="B70" s="15"/>
+      <c r="B70" s="15" t="s">
+        <v>994</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="15"/>
+      <c r="B71" s="15" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="72">
-      <c r="B72" s="15"/>
+      <c r="B72" s="15" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="73">
-      <c r="B73" s="15"/>
+      <c r="B73" s="15" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="74">
-      <c r="B74" s="15"/>
+      <c r="B74" s="15" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="75">
-      <c r="B75" s="15"/>
+      <c r="B75" s="15" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="76">
-      <c r="B76" s="15"/>
+      <c r="B76" s="16"/>
     </row>
     <row r="77">
-      <c r="B77" s="15"/>
+      <c r="B77" s="16"/>
     </row>
     <row r="78">
-      <c r="B78" s="15"/>
+      <c r="B78" s="16"/>
     </row>
     <row r="79">
-      <c r="B79" s="15"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80">
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
     </row>
     <row r="81">
-      <c r="B81" s="15"/>
+      <c r="B81" s="16"/>
     </row>
     <row r="82">
-      <c r="B82" s="15"/>
+      <c r="B82" s="16"/>
     </row>
     <row r="83">
-      <c r="B83" s="15"/>
+      <c r="B83" s="16"/>
     </row>
     <row r="84">
-      <c r="B84" s="15"/>
+      <c r="B84" s="16"/>
     </row>
     <row r="85">
-      <c r="B85" s="15"/>
+      <c r="B85" s="16"/>
     </row>
     <row r="86">
-      <c r="B86" s="15"/>
+      <c r="B86" s="16"/>
     </row>
     <row r="87">
-      <c r="B87" s="15"/>
+      <c r="B87" s="16"/>
     </row>
     <row r="88">
-      <c r="B88" s="15"/>
+      <c r="B88" s="16"/>
     </row>
     <row r="89">
-      <c r="B89" s="15"/>
+      <c r="B89" s="16"/>
     </row>
     <row r="90">
-      <c r="B90" s="15"/>
+      <c r="B90" s="16"/>
     </row>
     <row r="91">
-      <c r="B91" s="15"/>
+      <c r="B91" s="16"/>
     </row>
     <row r="92">
-      <c r="B92" s="15"/>
+      <c r="B92" s="16"/>
     </row>
     <row r="93">
-      <c r="B93" s="15"/>
+      <c r="B93" s="16"/>
     </row>
     <row r="94">
-      <c r="B94" s="15"/>
+      <c r="B94" s="16"/>
     </row>
     <row r="95">
-      <c r="B95" s="15"/>
+      <c r="B95" s="16"/>
     </row>
     <row r="96">
-      <c r="B96" s="15"/>
+      <c r="B96" s="16"/>
     </row>
     <row r="97">
-      <c r="B97" s="15"/>
+      <c r="B97" s="16"/>
     </row>
     <row r="98">
-      <c r="B98" s="15"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99">
-      <c r="B99" s="15"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100">
-      <c r="B100" s="15"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101">
-      <c r="B101" s="15"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102">
-      <c r="B102" s="15"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103">
-      <c r="B103" s="15"/>
+      <c r="B103" s="16"/>
     </row>
     <row r="104">
-      <c r="B104" s="15"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105">
-      <c r="B105" s="15"/>
+      <c r="B105" s="16"/>
     </row>
     <row r="106">
-      <c r="B106" s="15"/>
+      <c r="B106" s="16"/>
     </row>
     <row r="107">
-      <c r="B107" s="15"/>
+      <c r="B107" s="16"/>
     </row>
     <row r="108">
-      <c r="B108" s="15"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109">
-      <c r="B109" s="15"/>
+      <c r="B109" s="16"/>
     </row>
     <row r="110">
-      <c r="B110" s="15"/>
+      <c r="B110" s="16"/>
     </row>
     <row r="111">
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
     </row>
     <row r="112">
-      <c r="B112" s="15"/>
+      <c r="B112" s="16"/>
     </row>
     <row r="160">
       <c r="A160" s="9"/>
@@ -8905,17 +10323,27 @@
     </row>
     <row r="161">
       <c r="B161" s="4" t="s">
-        <v>751</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" s="4" t="s">
-        <v>752</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" s="4" t="s">
-        <v>753</v>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="4" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
